--- a/Desktop/Borang 2.0/Digestion/Gerhardt/Gerhadt/RB & IQC.xlsx
+++ b/Desktop/Borang 2.0/Digestion/Gerhardt/Gerhadt/RB & IQC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang 2.0\Digestion\Gerhardt\Gerhadt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE230EA-C8F7-4CCE-9231-0ECDE6E28868}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79E40DC-9F37-421D-A5EC-98B210F8F973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="2" r:id="rId1"/>
@@ -789,146 +789,146 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2506,7 +2506,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>150224</a:t>
+            <a:t>0</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
@@ -2907,7 +2907,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>100.000</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -2977,7 +2977,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>199.000</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
@@ -3043,7 +3043,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>298.000</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
@@ -3185,7 +3185,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>0.600</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3259,7 +3259,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>0.700</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3333,7 +3333,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>200.000</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3407,7 +3407,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>300.000</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3481,7 +3481,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>400.000</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3555,7 +3555,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>100.000</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3629,7 +3629,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>101.000</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3703,7 +3703,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>102.000</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -4423,7 +4423,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>0.500</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -4463,34 +4463,9 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="5">
-          <cell r="F5">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>199</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>298</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>amir</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>45550</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>150224</v>
+        <row r="8">
+          <cell r="B8">
+            <v>1</v>
           </cell>
         </row>
         <row r="32">
@@ -4819,8 +4794,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4849,18 +4824,18 @@
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="str">
+      <c r="B2" s="19">
         <f>[1]FormGerhadt!$B$24</f>
-        <v>amir</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+        <v>0</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
@@ -4871,18 +4846,18 @@
       </c>
       <c r="B3" s="29">
         <f>[1]FormGerhadt!$B$25</f>
-        <v>45550</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+        <v>0</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4892,36 +4867,36 @@
       <c r="B4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28" t="b">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26" t="b">
         <f>IF(B4="Microwave", TRUE)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="28" t="b">
+      <c r="E4" s="26" t="b">
         <f>IF(B4="Gerhadt 1", TRUE)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="28" t="b">
+      <c r="F4" s="26" t="b">
         <f>IF(B4="Gerhadt 2", TRUE)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="28" t="str">
+      <c r="G4" s="26" t="str">
         <f>IF(E4=TRUE,"GH1","")</f>
         <v/>
       </c>
-      <c r="H4" s="28" t="str">
+      <c r="H4" s="26" t="str">
         <f>IF(F4=TRUE,"GH2","")</f>
         <v/>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="28" t="b">
+      <c r="J4" s="26" t="b">
         <f>OR(E4, F4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4932,16 +4907,16 @@
         <f>[1]FormGerhadt!$B$32</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4952,16 +4927,16 @@
         <f>[1]FormGerhadt!$B$4</f>
         <v>0</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4969,16 +4944,16 @@
         <v>24</v>
       </c>
       <c r="B7" s="19"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4986,18 +4961,18 @@
         <v>30</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5005,27 +4980,27 @@
         <v>22</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26">
         <v>4122020</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="30" t="str">
+      <c r="B10" s="30">
         <f>[1]FormGerhadt!$B$27</f>
-        <v>150224</v>
+        <v>0</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26" t="s">
@@ -5045,8 +5020,8 @@
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5079,8 +5054,8 @@
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5096,8 +5071,8 @@
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="25"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5116,8 +5091,8 @@
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="25"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5126,7 +5101,7 @@
       </c>
       <c r="B14" s="27">
         <f>[1]FormGerhadt!$F$5</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -5136,8 +5111,8 @@
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="25"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5153,8 +5128,8 @@
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5173,8 +5148,8 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="25"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5183,7 +5158,7 @@
       </c>
       <c r="B17" s="27">
         <f>[1]FormGerhadt!$F$6</f>
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -5242,7 +5217,7 @@
       </c>
       <c r="B20" s="27">
         <f>[1]FormGerhadt!$F$7</f>
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -5376,6 +5351,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5384,8 +5360,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H5"/>
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5400,101 +5376,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="74" t="str">
+      <c r="B3" s="54"/>
+      <c r="C3" s="62">
         <f>Form!B2</f>
-        <v>amir</v>
-      </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="75">
+      <c r="B4" s="54"/>
+      <c r="C4" s="63">
         <f>Form!B3</f>
-        <v>45550</v>
-      </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="76" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="51" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="70"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="79" t="str">
+      <c r="B7" s="54"/>
+      <c r="C7" s="67" t="str">
         <f>Form!B5</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -5525,31 +5501,31 @@
         <f>Form!B7</f>
         <v>0</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="59"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="51">
         <f>Form!B8</f>
         <v>0</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="38"/>
+      <c r="D12" s="59"/>
     </row>
     <row r="13" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="57" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="57"/>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -5559,26 +5535,26 @@
         <f>Form!B9</f>
         <v>0</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
       <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
@@ -5598,11 +5574,11 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5610,38 +5586,38 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="80" t="s">
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82">
+      <c r="E20" s="36"/>
+      <c r="F20" s="37">
         <f>Form!B13</f>
         <v>0</v>
       </c>
-      <c r="G20" s="82"/>
-      <c r="H20" s="83"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="18" t="s">
         <v>20</v>
       </c>
@@ -5651,9 +5627,9 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="13"/>
       <c r="E22" s="8"/>
       <c r="F22" s="11"/>
@@ -5661,56 +5637,56 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="37" t="s">
+      <c r="B23" s="59"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="40" t="s">
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="54" t="s">
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="55"/>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="80" t="s">
+      <c r="A25" s="76"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82">
+      <c r="E25" s="36"/>
+      <c r="F25" s="37">
         <f>Form!B16</f>
         <v>0</v>
       </c>
-      <c r="G25" s="82"/>
-      <c r="H25" s="83"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="18" t="s">
         <v>20</v>
       </c>
@@ -5720,9 +5696,9 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="13"/>
       <c r="E27" s="8"/>
       <c r="F27" s="11"/>
@@ -5730,56 +5706,56 @@
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="37" t="s">
+      <c r="B28" s="59"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="42" t="s">
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="54" t="s">
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="55"/>
+      <c r="H29" s="43"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="80" t="s">
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82">
+      <c r="E30" s="36"/>
+      <c r="F30" s="37">
         <f>Form!B19</f>
         <v>0</v>
       </c>
-      <c r="G30" s="82"/>
-      <c r="H30" s="83"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="18" t="s">
         <v>20</v>
       </c>
@@ -5789,9 +5765,9 @@
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="13"/>
       <c r="E32" s="8"/>
       <c r="F32" s="11"/>
@@ -5799,34 +5775,34 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="37" t="s">
+      <c r="B33" s="59"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="42" t="s">
+      <c r="B34" s="72"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="54" t="s">
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="55"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -5850,14 +5826,34 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="C13:D14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
@@ -5874,34 +5870,14 @@
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <pageMargins left="0.83575581395348841" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Desktop/Borang 2.0/Digestion/Gerhardt/Gerhadt/RB & IQC.xlsx
+++ b/Desktop/Borang 2.0/Digestion/Gerhardt/Gerhadt/RB & IQC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang 2.0\Digestion\Gerhardt\Gerhadt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79E40DC-9F37-421D-A5EC-98B210F8F973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD208DD-FB48-434C-A971-6208C038AA25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
   </bookViews>
@@ -789,113 +789,26 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -905,30 +818,117 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5376,101 +5376,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="62">
+      <c r="B3" s="67"/>
+      <c r="C3" s="74">
         <f>Form!B2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="63">
+      <c r="B4" s="67"/>
+      <c r="C4" s="75">
         <f>Form!B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="64" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="68" t="s">
+      <c r="B6" s="71"/>
+      <c r="C6" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="67" t="str">
+      <c r="B7" s="67"/>
+      <c r="C7" s="79" t="str">
         <f>Form!B5</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -5501,31 +5501,31 @@
         <f>Form!B7</f>
         <v>0</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="59"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="64">
         <f>Form!B8</f>
         <v>0</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="59"/>
+      <c r="D12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="44" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="44"/>
+      <c r="D13" s="57"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -5535,26 +5535,26 @@
         <f>Form!B9</f>
         <v>0</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
@@ -5574,11 +5574,11 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5586,38 +5586,38 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="35" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37">
+      <c r="E20" s="81"/>
+      <c r="F20" s="82">
         <f>Form!B13</f>
         <v>0</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="83"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="18" t="s">
         <v>20</v>
       </c>
@@ -5627,9 +5627,9 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="75"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="13"/>
       <c r="E22" s="8"/>
       <c r="F22" s="11"/>
@@ -5637,56 +5637,56 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="74" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="82" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="42" t="s">
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="43"/>
+      <c r="H24" s="55"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="35" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37">
+      <c r="E25" s="81"/>
+      <c r="F25" s="82">
         <f>Form!B16</f>
         <v>0</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="83"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="18" t="s">
         <v>20</v>
       </c>
@@ -5696,9 +5696,9 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="75"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="13"/>
       <c r="E27" s="8"/>
       <c r="F27" s="11"/>
@@ -5706,56 +5706,56 @@
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="74" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="71" t="s">
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="42" t="s">
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="43"/>
+      <c r="H29" s="55"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="35" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37">
+      <c r="E30" s="81"/>
+      <c r="F30" s="82">
         <f>Form!B19</f>
         <v>0</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="83"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="18" t="s">
         <v>20</v>
       </c>
@@ -5765,9 +5765,9 @@
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="75"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="13"/>
       <c r="E32" s="8"/>
       <c r="F32" s="11"/>
@@ -5775,34 +5775,34 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="74" t="s">
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="71" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="42" t="s">
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="43"/>
+      <c r="H34" s="55"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -5826,18 +5826,30 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="G34:H34"/>
@@ -5854,30 +5866,18 @@
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.83575581395348841" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Desktop/Borang 2.0/Digestion/Gerhardt/Gerhadt/RB & IQC.xlsx
+++ b/Desktop/Borang 2.0/Digestion/Gerhardt/Gerhadt/RB & IQC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang 2.0\Digestion\Gerhardt\Gerhadt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD208DD-FB48-434C-A971-6208C038AA25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C32E391-2BDB-47D9-B548-5EFA5FA2BFA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t xml:space="preserve">UNIT ANALISIS TRADISIONAL </t>
   </si>
@@ -302,6 +302,21 @@
   <si>
     <t>Dosej Sampel IQC</t>
   </si>
+  <si>
+    <t>Exp Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNO  B/N:     </t>
+  </si>
+  <si>
+    <t>(11/11/2011)</t>
+  </si>
+  <si>
+    <t>(22/22/22)</t>
+  </si>
+  <si>
+    <t>(33/33/33)</t>
+  </si>
 </sst>
 </file>
 
@@ -413,7 +428,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,8 +453,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -705,11 +726,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -746,37 +841,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,146 +910,146 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,23 +1244,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$D$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$D$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$E$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$E$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$F$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$F$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$G$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$G$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$H$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$H$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2007,15 +2128,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>232587</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>44302</xdr:rowOff>
+      <xdr:colOff>239914</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>242128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>509476</xdr:colOff>
+      <xdr:colOff>516803</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>310116</xdr:rowOff>
+      <xdr:rowOff>229519</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2030,7 +2151,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="232587" y="2813197"/>
+          <a:off x="239914" y="2740609"/>
           <a:ext cx="276889" cy="265814"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2063,6 +2184,9 @@
             <a:rPr lang="en-MY" sz="1100"/>
             <a:t>₃ </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2274,7 +2398,7 @@
       <xdr:rowOff>29308</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="593481" cy="436786"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$H$2">
+    <xdr:sp macro="" textlink="[1]Form!$H$2">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
@@ -2456,7 +2580,7 @@
       <xdr:rowOff>161192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="930519" cy="191290"/>
-    <xdr:sp macro="" textlink="Form!B10">
+    <xdr:sp macro="" textlink="Form!B13">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
@@ -2857,7 +2981,7 @@
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="930519" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$F$5">
+    <xdr:sp macro="" textlink="[1]Form!$F$5">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
@@ -2907,7 +3031,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>0.000</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -2927,7 +3051,7 @@
       <xdr:rowOff>117231</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="893884" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$F$6">
+    <xdr:sp macro="" textlink="[1]Form!$F$6">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
@@ -2977,7 +3101,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>0.000</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
@@ -2993,7 +3117,7 @@
       <xdr:rowOff>73270</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="849923" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$F$7">
+    <xdr:sp macro="" textlink="[1]Form!$F$7">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
@@ -3043,7 +3167,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>0.000</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
@@ -3133,7 +3257,7 @@
       <xdr:rowOff>51288</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1245577" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$C$6">
+    <xdr:sp macro="" textlink="[1]Form!$C$6">
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
@@ -3207,7 +3331,7 @@
       <xdr:rowOff>51289</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1245577" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$C$7">
+    <xdr:sp macro="" textlink="[1]Form!$C$7">
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="TextBox 34">
           <a:extLst>
@@ -3281,7 +3405,7 @@
       <xdr:rowOff>307731</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1113693" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$E$5">
+    <xdr:sp macro="" textlink="[1]Form!$E$5">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
@@ -3355,7 +3479,7 @@
       <xdr:rowOff>307731</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1113693" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$E$6">
+    <xdr:sp macro="" textlink="[1]Form!$E$6">
       <xdr:nvSpPr>
         <xdr:cNvPr id="37" name="TextBox 36">
           <a:extLst>
@@ -3429,7 +3553,7 @@
       <xdr:rowOff>335574</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1113693" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$E$7">
+    <xdr:sp macro="" textlink="[1]Form!$E$7">
       <xdr:nvSpPr>
         <xdr:cNvPr id="38" name="TextBox 37">
           <a:extLst>
@@ -3503,7 +3627,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="813288" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$D$5">
+    <xdr:sp macro="" textlink="[1]Form!$D$5">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
@@ -3577,7 +3701,7 @@
       <xdr:rowOff>291611</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="813288" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$D$6">
+    <xdr:sp macro="" textlink="[1]Form!$D$6">
       <xdr:nvSpPr>
         <xdr:cNvPr id="48" name="TextBox 47">
           <a:extLst>
@@ -3651,7 +3775,7 @@
       <xdr:rowOff>260838</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="813288" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$D$7">
+    <xdr:sp macro="" textlink="[1]Form!$D$7">
       <xdr:nvSpPr>
         <xdr:cNvPr id="51" name="TextBox 50">
           <a:extLst>
@@ -3873,7 +3997,7 @@
       <xdr:rowOff>58617</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1384788" cy="212480"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$D$2">
+    <xdr:sp macro="" textlink="[1]Form!$D$2">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
@@ -3947,7 +4071,7 @@
       <xdr:rowOff>241788</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1208942" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$D$3">
+    <xdr:sp macro="" textlink="[1]Form!$D$3">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
@@ -4021,7 +4145,7 @@
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1033096" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$E$2">
+    <xdr:sp macro="" textlink="[1]Form!$E$2">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
@@ -4097,7 +4221,7 @@
       <xdr:rowOff>271096</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1047750" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$E$3">
+    <xdr:sp macro="" textlink="[1]Form!$E$3">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="TextBox 22">
           <a:extLst>
@@ -4215,13 +4339,21 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-MY" sz="1100"/>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>A:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-MY" sz="1100"/>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>B:</a:t>
           </a:r>
         </a:p>
@@ -4237,7 +4369,7 @@
       <xdr:rowOff>146538</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1340827" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$F$2">
+    <xdr:sp macro="" textlink="[1]Form!$F$2">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
@@ -4303,7 +4435,7 @@
       <xdr:rowOff>73269</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1274885" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$F$3">
+    <xdr:sp macro="" textlink="[1]Form!$F$3">
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="TextBox 25">
           <a:extLst>
@@ -4369,7 +4501,7 @@
       <xdr:rowOff>124558</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="974481" cy="248851"/>
-    <xdr:sp macro="" textlink="[1]FormGerhadt!$C$5">
+    <xdr:sp macro="" textlink="[1]Form!$C$5">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="TextBox 26">
           <a:extLst>
@@ -4437,6 +4569,262 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="981808" cy="197827"/>
+    <xdr:sp macro="" textlink="Form!B8">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2886808"/>
+          <a:ext cx="981808" cy="197827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{EE4AAD89-A00D-4127-94D1-2F7F1FAE4A08}" type="TxLink">
+            <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>(11/11/2011)</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>172915</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="652096" cy="161193"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="3579934"/>
+          <a:ext cx="652096" cy="161193"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5860</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130421</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="930518" cy="197827"/>
+    <xdr:sp macro="" textlink="Form!B10">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextBox 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5860" y="3222383"/>
+          <a:ext cx="930518" cy="197827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{F555931A-955C-4CA2-BC5B-50853B19D229}" type="TxLink">
+            <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>(22/22/22)</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139213</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="930518" cy="197827"/>
+    <xdr:sp macro="" textlink="Form!B12">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="TextBox 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3546232"/>
+          <a:ext cx="930518" cy="197827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{A4375CF4-6A55-4A7E-A740-64DF4D1CBCCE}" type="TxLink">
+            <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>(33/33/33)</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4444,7 +4832,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="FormGerhadt"/>
+      <sheetName val="Form"/>
       <sheetName val="SAMPEL 1 "/>
       <sheetName val="SAMPEL 2"/>
       <sheetName val="SAMPEL 3"/>
@@ -4463,9 +4851,19 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="8">
-          <cell r="B8">
-            <v>1</v>
+        <row r="5">
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>0</v>
           </cell>
         </row>
         <row r="32">
@@ -4474,21 +4872,21 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4792,466 +5190,529 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAE1D4E-E6D1-4EB1-B4CB-10C031C7CB3C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="B1" s="42"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19">
-        <f>[1]FormGerhadt!$B$24</f>
+      <c r="B2" s="22">
+        <f>[1]Form!$B$24</f>
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29">
-        <f>[1]FormGerhadt!$B$25</f>
+      <c r="B3" s="23">
+        <f>[1]Form!$B$25</f>
         <v>0</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="28"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26" t="b">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="b">
         <f>IF(B4="Microwave", TRUE)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="26" t="b">
+      <c r="E4" s="20" t="b">
         <f>IF(B4="Gerhadt 1", TRUE)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="26" t="b">
+      <c r="F4" s="20" t="b">
         <f>IF(B4="Gerhadt 2", TRUE)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="26" t="str">
+      <c r="G4" s="20" t="str">
         <f>IF(E4=TRUE,"GH1","")</f>
         <v/>
       </c>
-      <c r="H4" s="26" t="str">
+      <c r="H4" s="20" t="str">
         <f>IF(F4=TRUE,"GH2","")</f>
         <v/>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="26" t="b">
+      <c r="J4" s="20" t="b">
         <f>OR(E4, F4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="28"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21" t="str">
-        <f>[1]FormGerhadt!$B$32</f>
+      <c r="B5" s="24" t="str">
+        <f>[1]Form!$B$32</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="28"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="19">
-        <f>[1]FormGerhadt!$B$4</f>
+      <c r="B6" s="27">
+        <f>[1]Form!$B$4</f>
         <v>0</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="28"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="25"/>
+      <c r="B7" s="30">
+        <v>1123090</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26" t="s">
+      <c r="B9" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26">
-        <v>4122020</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="25"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="30">
-        <f>[1]FormGerhadt!$B$27</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="25"/>
+      <c r="A10" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="19"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26" t="b">
-        <f>IF(B11="serbuk", TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="26" t="b">
-        <f>IF(B11="cecair", TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="26" t="b">
-        <f>IF(B11="pil", TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="26" t="b">
-        <f>IF(B11="kapsul lembut", TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="26" t="b">
-        <f>IF(B11="krim/salap", TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="25"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="30">
+        <v>4122020</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20">
+        <v>4122020</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="25"/>
+      <c r="A12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="19">
-        <f>[1]FormGerhadt!$B$5</f>
+      <c r="A13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="28">
+        <f>[1]Form!$B$27</f>
         <v>0</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="25"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="27">
-        <f>[1]FormGerhadt!$F$5</f>
+      <c r="A14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="b">
+        <f>IF(B14="serbuk", TRUE)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="25"/>
+      <c r="E14" s="20" t="b">
+        <f>IF(B14="cecair", TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="20" t="b">
+        <f>IF(B14="pil", TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20" t="b">
+        <f>IF(B14="kapsul lembut", TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="20" t="b">
+        <f>IF(B14="krim/salap", TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="25"/>
+      <c r="A15" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="19">
-        <f>[1]FormGerhadt!$B$6</f>
+      <c r="A16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="22">
+        <f>[1]Form!$B$5</f>
         <v>0</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="25"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="27">
-        <f>[1]FormGerhadt!$F$6</f>
+      <c r="B17" s="25">
+        <f>[1]Form!$F$5</f>
         <v>0</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="25"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="25"/>
+      <c r="A18" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="19">
-        <f>[1]FormGerhadt!$B$7</f>
+      <c r="A19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="22">
+        <f>[1]Form!$B$6</f>
         <v>0</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="25"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="19"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="27">
-        <f>[1]FormGerhadt!$F$7</f>
+      <c r="B20" s="25">
+        <f>[1]Form!$F$6</f>
         <v>0</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="22">
+        <f>[1]Form!$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="19"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="25">
+        <f>[1]Form!$F$7</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="22" priority="35">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="35">
       <formula>LEN(B2)=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="20" priority="34">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="34">
       <formula>LEN(B3)=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
@@ -5265,76 +5726,76 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="16" priority="30">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="30">
       <formula>LEN(B6)=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
-      <formula>0</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+  <conditionalFormatting sqref="B7:B8">
     <cfRule type="expression" dxfId="14" priority="29">
       <formula>LEN(B7)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B9:B10">
     <cfRule type="expression" dxfId="13" priority="28">
-      <formula>LEN(B8)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="12" priority="27">
       <formula>LEN(B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="11" priority="25">
-      <formula>LEN(B10)=0</formula>
+  <conditionalFormatting sqref="B11:B12">
+    <cfRule type="expression" dxfId="12" priority="27">
+      <formula>LEN(B11)=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="10" priority="25">
+      <formula>LEN(B13)=0</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
+  <conditionalFormatting sqref="B14">
     <cfRule type="cellIs" dxfId="9" priority="24" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="8" priority="17">
-      <formula>LEN(B13)=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>LEN(B16)=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>LEN(B19)=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="3" priority="11">
+      <formula>LEN(B22)=0</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B20">
     <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
+  <conditionalFormatting sqref="B23">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5346,7 +5807,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{50323176-B049-4354-9D88-7B8288E2D22A}">
       <formula1>"Sila Pilih, XP 205DR, MSA 225S-100-DA, PG 603S, MSE 225S-100-DU"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{60694C38-E9CB-49EB-A849-D67BF3A01F36}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{60694C38-E9CB-49EB-A849-D67BF3A01F36}">
       <formula1>"Sila Pilih, Serbuk, Cecair, Pil, Kapsul lembut, Krim/salap"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5360,8 +5821,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:E15"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5376,101 +5837,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="74">
+      <c r="B3" s="62"/>
+      <c r="C3" s="70">
         <f>Form!B2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="75">
+      <c r="B4" s="62"/>
+      <c r="C4" s="71">
         <f>Form!B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="76" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="51" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="79" t="str">
+      <c r="B7" s="62"/>
+      <c r="C7" s="75" t="str">
         <f>Form!B5</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -5488,73 +5949,73 @@
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="15">
         <f>Form!B6</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="15">
+      <c r="A11" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="34">
         <f>Form!B7</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="38" t="s">
+        <v>1123090</v>
+      </c>
+      <c r="C11" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="67"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="64">
-        <f>Form!B8</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="38" t="s">
+      <c r="B12" s="59" t="str">
+        <f>Form!B9</f>
+        <v>K55266610321</v>
+      </c>
+      <c r="C12" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="38"/>
+      <c r="D12" s="67"/>
     </row>
     <row r="13" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="57" t="s">
+      <c r="A13" s="69"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="57"/>
+      <c r="D13" s="52"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="17">
-        <f>Form!B9</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
+      <c r="B14" s="35">
+        <f>Form!B11</f>
+        <v>4122020</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="88"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
@@ -5574,11 +6035,11 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5586,39 +6047,39 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="80" t="s">
+      <c r="A20" s="84"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82">
-        <f>Form!B13</f>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45">
+        <f>Form!B16</f>
         <v>0</v>
       </c>
-      <c r="G20" s="82"/>
-      <c r="H20" s="83"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="18" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="8"/>
@@ -5627,9 +6088,9 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="13"/>
       <c r="E22" s="8"/>
       <c r="F22" s="11"/>
@@ -5637,57 +6098,57 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="37" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="40" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="54" t="s">
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="55"/>
+      <c r="H24" s="51"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="80" t="s">
+      <c r="A25" s="84"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82">
-        <f>Form!B16</f>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45">
+        <f>Form!B19</f>
         <v>0</v>
       </c>
-      <c r="G25" s="82"/>
-      <c r="H25" s="83"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="18" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="8"/>
@@ -5696,9 +6157,9 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="83"/>
       <c r="D27" s="13"/>
       <c r="E27" s="8"/>
       <c r="F27" s="11"/>
@@ -5706,57 +6167,57 @@
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="37" t="s">
+      <c r="B28" s="67"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="42" t="s">
+      <c r="B29" s="80"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="54" t="s">
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="55"/>
+      <c r="H29" s="51"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="80" t="s">
+      <c r="A30" s="84"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82">
-        <f>Form!B19</f>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45">
+        <f>Form!B22</f>
         <v>0</v>
       </c>
-      <c r="G30" s="82"/>
-      <c r="H30" s="83"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="18" t="s">
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="8"/>
@@ -5765,9 +6226,9 @@
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="13"/>
       <c r="E32" s="8"/>
       <c r="F32" s="11"/>
@@ -5775,34 +6236,34 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="37" t="s">
+      <c r="B33" s="67"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="42" t="s">
+      <c r="B34" s="80"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="54" t="s">
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="55"/>
+      <c r="H34" s="51"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -5826,14 +6287,34 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="C13:D14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
@@ -5850,34 +6331,14 @@
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <pageMargins left="0.83575581395348841" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
